--- a/Data/HealthWB.xlsx
+++ b/Data/HealthWB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A11156-4B0E-F044-897D-F8E75811CBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8084B7A2-1200-6049-8BB0-00A27243D2D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="460" windowWidth="19900" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="8900" yWindow="460" windowWidth="19900" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Question</t>
   </si>
@@ -33,15 +33,27 @@
     <t>Current</t>
   </si>
   <si>
+    <t>Occurrence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Do you currently have access to free food for your household? Examples of free food include food pantries and programs, SNAP etc. 
-• Yes I have access to free food resources 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes I have access to free food resources 
 • No, but I know where/how I can access free food resources  
 • No, I am not eligible for free food resources  
 • Unsure </t>
   </si>
   <si>
+    <t>Answers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prior to coronavirus (COVID-19), did you get free or reduced lunches for your child(ren)? 
-• Yes, my child(ren) received free or reduced lunches  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, my child(ren) received free or reduced lunches  
 • No, my child did not receive free or reduced lunches, but they were available 
 • No, free or reduced lunches were not available for my children  
 • No, but I had planned on getting free or reduced lunches for my children soon  
@@ -49,7 +61,10 @@
   </si>
   <si>
     <t xml:space="preserve">Do you currently get free or reduced lunches for your child(ren)? 
-• Yes, my child(ren) receive(s) free or reduced lunches  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, my child(ren) receive(s) free or reduced lunches  
 • No, my child does not receive free or reduced lunches, but they were available 
 • No, free or reduced lunches are not available for my children  
 • No, but I plan on getting free or reduced lunches for my children soon  
@@ -57,14 +72,20 @@
   </si>
   <si>
     <t xml:space="preserve">In the past month, how hard has it been for you to pay for the very basics like food, housing, medical care, and heating? 
-• Very hard 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very hard 
 • Hard 
 • Somewhat hard  
 • Not very hard </t>
   </si>
   <si>
     <t xml:space="preserve">Which of these needs have been hard to pay for in the past month? 
-• Food 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Food 
 • Housing 
 • Utilities (electric, water, trash) 
 • Healthcare 
@@ -73,12 +94,6 @@
 • Childcare 
 • Other (please specify) [text entry] 
 • None of the above </t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Occurrence</t>
   </si>
 </sst>
 </file>
@@ -443,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -459,53 +474,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="102">
+    <row r="2" spans="1:3" ht="136">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="102">
+    <row r="3" spans="1:3" ht="289">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="102">
+    <row r="4" spans="1:3" ht="289">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="102">
+    <row r="5" spans="1:3" ht="68">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="170">
+    <row r="6" spans="1:3" ht="187">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
